--- a/Data Files/Accounts.xlsx
+++ b/Data Files/Accounts.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11109"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6F5B71-6A27-B246-A524-28F5C77A6326}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA97DB0-CBE5-AE46-80CE-94A425DF39DE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="valid_accounts" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="11">
   <si>
     <t>Username</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>bella@katalon.com</t>
+  </si>
+  <si>
+    <t>sPiHQ&amp;YEa6ST`de+</t>
   </si>
 </sst>
 </file>
@@ -380,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -405,21 +408,48 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{08242C3C-3804-5D45-BB5D-3EA8C24C45A7}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{78099752-8180-6147-9336-BB4F1DA796D6}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{563A1451-49AC-4640-9C42-22AF0ACE9803}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{9B6DD8E2-B620-9F4A-9F33-44B33BC8790C}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{DFA395DD-7B88-F146-A5C4-B8987C014857}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{CEBE3A12-10CE-A349-847F-D7F601A8A375}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -478,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
